--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>testuser13@ucsc.com</t>
+  </si>
+  <si>
+    <t>testuser14@ucsc.com</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>37</v>
